--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.2966</v>
+        <v>-13.53519999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.32150000000001</v>
+        <v>-14.38140000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.582199999999999</v>
+        <v>-7.872300000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.6395</v>
+        <v>-11.36749999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.869899999999997</v>
+        <v>-7.599399999999997</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.19449999999998</v>
+        <v>-12.14789999999998</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.947599999999992</v>
+        <v>-8.70619999999999</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.01510000000003</v>
+        <v>-22.02160000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -627,18 +627,18 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.2747</v>
+        <v>13.65380000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.20460000000001</v>
+        <v>-21.04100000000001</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.35409999999999</v>
+        <v>-11.28839999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,18 +672,18 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.862</v>
+        <v>-12.09250000000001</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.33810000000001</v>
+        <v>14.0155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.1478</v>
+        <v>-21.18010000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.645999999999995</v>
+        <v>-7.613299999999997</v>
       </c>
       <c r="E19" t="n">
-        <v>14.3359</v>
+        <v>14.08060000000001</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.817399999999992</v>
+        <v>-8.621599999999994</v>
       </c>
       <c r="E21" t="n">
-        <v>12.7</v>
+        <v>12.54070000000001</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.19189999999999</v>
+        <v>-11.06159999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.516399999999996</v>
+        <v>-7.727999999999987</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.587199999999997</v>
+        <v>-7.527899999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
